--- a/5_stats/design_stats.xlsx
+++ b/5_stats/design_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.waechli/Desktop/Jan_Waelchli/01_Projects/01_Support/Vero/03_BE12/5_stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.waechli/Desktop/Jan_Waelchli/01_Projects/01_Support/Vero/03_ASV_Arsen_BX_trt/5_stats/Version_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0151138-0FFD-A445-94F6-59AA03B05985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13268A9-AF32-1D44-A767-AA2C40DA82F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{CBA9166C-075C-B945-A7F9-3C3A63C0D2D3}"/>
   </bookViews>
@@ -403,9 +403,6 @@
     <t>0ppm</t>
   </si>
   <si>
-    <t>arsen</t>
-  </si>
-  <si>
     <t>sample_ID</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>background</t>
+  </si>
+  <si>
+    <t>arsenic</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <dimension ref="A1:AA337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -949,7 +949,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>113</v>
@@ -961,19 +961,19 @@
         <v>115</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="J1" s="12"/>
       <c r="K1" s="13"/>
